--- a/4_Análisis de Enriquecimiento Funcional/GO_Biological_Process_terms_sorted_with_FC.xlsx
+++ b/4_Análisis de Enriquecimiento Funcional/GO_Biological_Process_terms_sorted_with_FC.xlsx
@@ -874,6 +874,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2989,7 +2993,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
